--- a/персонажи.xlsx
+++ b/персонажи.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\Geekbrains\Hello Java и ООП\ООП семинары\S1\OOP S1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\Geekbrains\Hello Java и ООП\ООП семинары\S1\1811_OOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Крестьянин</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Написать программу с семью классами, описывающими данных в таблице персонажей. Для каждого создать по два конструктора</t>
+  </si>
+  <si>
+    <t>cjplfnm</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +743,9 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
